--- a/sq3/PATCHES/sq3.xlsx
+++ b/sq3/PATCHES/sq3.xlsx
@@ -12960,7 +12960,7 @@
     <t>in 042, 043, 700, 703</t>
   </si>
   <si>
-    <t>sign | סימן | אות | אותת | סמן</t>
+    <t>sign | סימן | אות | אותת | סמן | שלט</t>
   </si>
   <si>
     <t>2431</t>

--- a/sq3/PATCHES/sq3.xlsx
+++ b/sq3/PATCHES/sq3.xlsx
@@ -19811,7 +19811,7 @@
     <xdr:ext cx="5353050" cy="6276975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image4.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -19844,7 +19844,7 @@
     <xdr:ext cx="7258050" cy="4648200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image3.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/sq3/PATCHES/sq3.xlsx
+++ b/sq3/PATCHES/sq3.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11348" uniqueCount="6216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11349" uniqueCount="6216">
   <si>
     <t>ברוכים הבאים!</t>
   </si>
@@ -316,10 +316,7 @@
     </r>
   </si>
   <si>
-    <t>(עוד view במסעדה, כשהולכים ימינה)</t>
-  </si>
-  <si>
-    <t>ובכלל הוויוים האחרונים</t>
+    <t>חדר 120 - לעברת את הפקודות (וגם בחדר קודם, שמודפסות ההוראות)</t>
   </si>
   <si>
     <t>"הקש פקודה" מיושר לא נכון עכשו...</t>
@@ -344,7 +341,10 @@
     <t>להגדיל את המלבן שסביב החפצים במלאי. רואים את זה למשל, ברימון באורטגה</t>
   </si>
   <si>
-    <t>חדר 120 - לעברת את הפקודות (וגם בחדר קודם, שמודפסות ההוראות)</t>
+    <t>(עוד view במסעדה, כשהולכים ימינה)</t>
+  </si>
+  <si>
+    <t>ובכלל הוויוים האחרונים</t>
   </si>
   <si>
     <t>עתידי:</t>
@@ -6707,22 +6707,22 @@
     <t>Greetings Earthling. We are the Two Guys From Andromeda, Universally famous software authors.</t>
   </si>
   <si>
-    <t xml:space="preserve">    ברכות בן כדור הארץ. אנו שני הבחורים מאנדרומדה,
-    מומחי תוכנה בעלי שם אוניברסלי.</t>
+    <t>ברכות בן כדור הארץ. אנו שני הבחורים מאנדרומדה,
+מומחי תוכנה בעלי שם אוניברסלי.</t>
   </si>
   <si>
     <t>And I am Roger Wilco, Space age swashbuckler and all around nice guy.</t>
   </si>
   <si>
-    <t xml:space="preserve">    ואני רוג'ר ווילקו, הרפתקן מעידן החלל
-    ובחור נחמד באופן כללי.</t>
+    <t>ואני רוג'ר ווילקו, הרפתקן מעידן החלל
+ובחור נחמד באופן כללי.</t>
   </si>
   <si>
     <t>Hello, I'm Ken Williams, President and founder of Sierra On-line. Sooo... You two guys are software authors heh? What are your credits?</t>
   </si>
   <si>
-    <t xml:space="preserve">    שלום, אני קן וויליאמס, נשיא ומייסד סיירה אונליין. אזזז...
-    אתם שניכם מהנדסי תוכנה אה? מה הרזומה שלכם?</t>
+    <t>שלום, אני קן וויליאמס, נשיא ומייסד סיירה אונליין. אזזז...
+אתם שניכם מהנדסי תוכנה אה? מה הרזומה שלכם?</t>
   </si>
   <si>
     <t>Ever heard of ASTRO CHICKEN?</t>
@@ -10174,19 +10174,19 @@
     <t>Mark Seibert, Bob Siebenberg\n&amp; Stuart Goldstein\nFor Their Outstanding Sound Work</t>
   </si>
   <si>
-    <t>Mark Seibert, Bob Siebenberg\n&amp; Stuart Goldstein על צלילים יוצאים מן הכלל</t>
+    <t>מארק זיברט, בוב זיבנברג\nוסטיורט גולדסטין\nעל צלילים יוצאים מן הכלל</t>
   </si>
   <si>
     <t>Doug Oldfield, Ken Koch &amp; Chris Smith\nFor A Great Programming Effort</t>
   </si>
   <si>
-    <t>Doug Oldfield, Ken Koch &amp; Chris Smith\n על מאמצי התכנות האדירים</t>
+    <t>דאג אולדפילד, קן קוך וכריס סמיט\n על מאמצי התכנות האדירים</t>
   </si>
   <si>
     <t>The Little People, Nobodies, Scum\nWould Also Like To Thank\n</t>
   </si>
   <si>
-    <t>לאנשים הקטנים, לכלומניקים, טינופת\nרוצים גם להודות\n</t>
+    <t>אנשים הקטנים, הכלומניקים, הטינופות\nרוצים גם להודות\n</t>
   </si>
   <si>
     <t>Robert E. "Bobbit" Heitman\nFor His Generous, Yet Verbose, Contribution of Advice, Help &amp; Emergency Code Service</t>
@@ -19646,8 +19646,8 @@
     <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -19790,7 +19790,7 @@
     <xdr:ext cx="2305050" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image1.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -19823,7 +19823,7 @@
     <xdr:ext cx="3924300" cy="2686050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image3.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -19851,7 +19851,7 @@
     <xdr:ext cx="3829050" cy="3200400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image2.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -19879,7 +19879,7 @@
     <xdr:ext cx="5353050" cy="6276975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image4.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -19912,7 +19912,7 @@
     <xdr:ext cx="7258050" cy="4648200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="תמונה"/>
+        <xdr:cNvPr id="0" name="image5.png" title="תמונה"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -20667,21 +20667,18 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -20711,21 +20708,21 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="3"/>
@@ -45953,7 +45950,7 @@
       <c r="C206" s="41" t="s">
         <v>3166</v>
       </c>
-      <c r="D206" s="47" t="s">
+      <c r="D206" s="48" t="s">
         <v>3167</v>
       </c>
       <c r="E206" s="21"/>
@@ -45968,7 +45965,7 @@
       <c r="C207" s="41" t="s">
         <v>3168</v>
       </c>
-      <c r="D207" s="48" t="s">
+      <c r="D207" s="44" t="s">
         <v>3169</v>
       </c>
       <c r="E207" s="21"/>
@@ -45986,7 +45983,9 @@
       <c r="D208" s="44" t="s">
         <v>3171</v>
       </c>
-      <c r="E208" s="21"/>
+      <c r="E208" s="28" t="s">
+        <v>2229</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="36" t="s">
